--- a/QDTAS_HRM_HYBRIDFRAMEWORK-OCT/TestData/LoginData.xlsx
+++ b/QDTAS_HRM_HYBRIDFRAMEWORK-OCT/TestData/LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6800"/>
+    <workbookView windowWidth="18350" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>admin@gmail.com</t>
   </si>
   <si>
     <t>123@Admin</t>
+  </si>
+  <si>
+    <t>CSE</t>
   </si>
 </sst>
 </file>
@@ -982,7 +985,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1003,8 +1006,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1"/>
